--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodyPosition.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodyPosition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>no-domain-vital-signs-observations-heartrate-bodypositionvalueset</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>FHIR Project team</t>
   </si>
   <si>
     <t>Contact</t>
@@ -310,38 +310,40 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>10</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>12</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodyPosition.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodyPosition.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -251,10 +251,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodyPosition.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
